--- a/sctkpy/templates/member_report_template.xlsx
+++ b/sctkpy/templates/member_report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overview Info" sheetId="1" state="visible" r:id="rId3"/>
@@ -105,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,6 +139,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -178,7 +184,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -279,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,10 +314,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,27 +334,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,11 +395,49 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF996600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -390,15 +446,15 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFEEEEEE"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -418,7 +474,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -553,8 +609,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,42 +638,42 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -626,6 +682,20 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A4"/>
   </mergeCells>
+  <conditionalFormatting sqref="A6:E500">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($C6&gt;=$C$3, $C$3&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>AND($D6&gt;=$C$4, $C$4&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND($D6&gt;=1, $C$4&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND($C6&gt;=1, $C$3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -643,19 +713,22 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="24.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="13" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="14" width="11.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="29.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="11.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="13" width="24.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="11.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -677,70 +750,70 @@
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="23" t="s">
         <v>24</v>
       </c>
     </row>
